--- a/examples/test_multiline_macro.xlsx
+++ b/examples/test_multiline_macro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD8C2E8-EB8C-E645-ADB2-A51FEA74EC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EC8C83-BE16-E540-8E87-8DA22F3DAE66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1200" windowWidth="24880" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>File</t>
   </si>
@@ -45,10 +45,7 @@
     <t>Macro</t>
   </si>
   <si>
-    <t>run("Set Measurements...", "mean redirect=None decimal=3"); run("Measure");</t>
-  </si>
-  <si>
-    <t>run("Add...", "value=100"); run("Measure");</t>
+    <t>setOption("BlackBackground", false); run("Convert to Mask"); run("Analyze Particles...", "clear display");</t>
   </si>
 </sst>
 </file>
@@ -647,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
